--- a/biology/Botanique/Plan_national_de_reboisement/Plan_national_de_reboisement.xlsx
+++ b/biology/Botanique/Plan_national_de_reboisement/Plan_national_de_reboisement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Plan national de reboisement (PNR), est une composante du plan national de développement agricole et rural de l'Algérie (PNDAR), mis en œuvre en 2000, qui vise la mise en valeur des terres, la lutte contre la désertification, la protection et de la valorisation des ressources naturelles dans le cadre d’un développement rural durable.
 </t>
@@ -513,18 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contexte
-Création
-Le PNR a été élaboré en 1998 avec pour objectif d'étendre le patrimoine forestier algérien sur 1.250.000 ha sur une période de vingt ans et permettre d’élever le taux de
-boisement de 11 % à 13 % à l’horizon 2020[1].
-Ce PNR a ensuite été examiné et adopté lors du Conseil du Gouvernement du 26 septembre 1999 pour traduire les préoccupations forestières et écologiques de l'Algérie en intégrant autant que possible les dimensions écologiques et sociales[2].
-Évolution
-En 2014, le plan national de reboisement a été réalisé à hauteur de 50 %.
-La direction générale des forêts (DGF) a planté depuis 2000 quelque 580 000 hectares dans les Hauts plateaux, les régions du Sahara et du nord de l'Algérie.
-Le PNR vise à boiser 1,2 million d’hectares à l’horizon 2020, puisque la DGF compte augmenter la moyenne annuelle de reboisement à 70 000 hectares pour une meilleure préservation des superficies plantées et la protection des sols du phénomène de désertification.
-Le plan quinquennal "intégré" (2015-2019) portera sur le reboisement de plus 350 000 hectares par des entreprises publiques spécialisées relevant de la DGF[3].
-Ainsi, 1 852 748 hectares ont été reboisés entre 1962 et 2013, dont 658 640 depuis le lancement du plan national de reboisement (PNR)[4].
-Le 1er octobre 2019, le programme de plantation de 43 millions d'arbres est lancé afin de consolider le barrage vert et de l'étendre de 10 %. Le chiffre de 43 millions d'arbres fait référence au nombre de la population algérienne ce programme porte le nom "un habitant, un arbre" et doit être achevé en mars 2020[5].
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le PNR a été élaboré en 1998 avec pour objectif d'étendre le patrimoine forestier algérien sur 1.250.000 ha sur une période de vingt ans et permettre d’élever le taux de
+boisement de 11 % à 13 % à l’horizon 2020.
+Ce PNR a ensuite été examiné et adopté lors du Conseil du Gouvernement du 26 septembre 1999 pour traduire les préoccupations forestières et écologiques de l'Algérie en intégrant autant que possible les dimensions écologiques et sociales.
 </t>
         </is>
       </c>
@@ -550,13 +559,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, le plan national de reboisement a été réalisé à hauteur de 50 %.
+La direction générale des forêts (DGF) a planté depuis 2000 quelque 580 000 hectares dans les Hauts plateaux, les régions du Sahara et du nord de l'Algérie.
+Le PNR vise à boiser 1,2 million d’hectares à l’horizon 2020, puisque la DGF compte augmenter la moyenne annuelle de reboisement à 70 000 hectares pour une meilleure préservation des superficies plantées et la protection des sols du phénomène de désertification.
+Le plan quinquennal "intégré" (2015-2019) portera sur le reboisement de plus 350 000 hectares par des entreprises publiques spécialisées relevant de la DGF.
+Ainsi, 1 852 748 hectares ont été reboisés entre 1962 et 2013, dont 658 640 depuis le lancement du plan national de reboisement (PNR).
+Le 1er octobre 2019, le programme de plantation de 43 millions d'arbres est lancé afin de consolider le barrage vert et de l'étendre de 10 %. Le chiffre de 43 millions d'arbres fait référence au nombre de la population algérienne ce programme porte le nom "un habitant, un arbre" et doit être achevé en mars 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plan_national_de_reboisement</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan_national_de_reboisement</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Objectif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le PNR a pour objectif l’émergence de systèmes économiques viables permettant aux populations
-rurales de disposer de moyens adéquats de subsistance, de stabilité et de développement[6].
+rurales de disposer de moyens adéquats de subsistance, de stabilité et de développement.
 Par ailleurs, l’objectif phare du PNR vise l’augmentation du taux de boisement de 11 à 13 %.
 La planification de l’ensemble des actions prévues au PNR porte sur un objectif global de 1.245.900 ha sur 20 ans réparti comme suit :
 Reboisement industriel à base de chêne liège : 75 000 ha ;
@@ -567,39 +620,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Plan_national_de_reboisement</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Plan_national_de_reboisement</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Bilan des activités</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le lancement du plan national de reboisement (PNR), il a été réalisé 494 000 hectares de plantation dont 166 000 hectares en fruitier[7].
-En 2014, la campagne de plantation a atteint les objectifs de 132 249 ha plantés, dont 71 882 ha de plants forestiers, 52 329 ha de plants fruitiers et 7 038 ha de plants pastoraux.
-La quantité de plants agréée a atteint 54.669.099 plants, répartie en 43 413 023 plants résineux, 5.014.072 plants feuillus, 2.847.566 plants hautes tiges, 276 500 plants fruitiers et 3.117.932 plants pastoraux[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -621,10 +641,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Bilan des activités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le lancement du plan national de reboisement (PNR), il a été réalisé 494 000 hectares de plantation dont 166 000 hectares en fruitier.
+En 2014, la campagne de plantation a atteint les objectifs de 132 249 ha plantés, dont 71 882 ha de plants forestiers, 52 329 ha de plants fruitiers et 7 038 ha de plants pastoraux.
+La quantité de plants agréée a atteint 54.669.099 plants, répartie en 43 413 023 plants résineux, 5.014.072 plants feuillus, 2.847.566 plants hautes tiges, 276 500 plants fruitiers et 3.117.932 plants pastoraux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plan_national_de_reboisement</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan_national_de_reboisement</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Perspectives</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PNR constitue l’instrument de mise en œuvre de la politique de renouveau rural en Algérie qui a pour objectif la promotion d’un développement économique associant l’ensemble des intervenants sur les territoires ruraux.
 Cette politique est mise en œuvre à travers 04 programmes fédérateurs suivants :
@@ -632,36 +689,38 @@
 diversification des activités économiques ;
 protection et valorisation des ressources naturelles ;
 protection et valorisation du patrimoine rural matériel et immatériel.
-Ce renouveau rural a pour objectif la sauvegarde des équilibres naturels des écosystèmes et l’amélioration du niveau de vie des populations locales, à la carte de sensibilité à la désertification, les études d’aménagement des bassins versants, l’étude portant reconstitution de la nappe alfatière, les plans de gestion des aires protégées et zones humides[8].
+Ce renouveau rural a pour objectif la sauvegarde des équilibres naturels des écosystèmes et l’amélioration du niveau de vie des populations locales, à la carte de sensibilité à la désertification, les études d’aménagement des bassins versants, l’étude portant reconstitution de la nappe alfatière, les plans de gestion des aires protégées et zones humides.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Plan_national_de_reboisement</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Plan_national_de_reboisement</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Programme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le programme du PNR s'articule autour de quatre grands axes stratégiques à savoir :
 La lutte contre la désertification, avec en prime, la réhabilitation du barrage vert sur une superficie de 100 000 hectares, l’atténuation de la désertification, l'amélioration de la productivité des terres moyennement dégradées, la restauration des terres gravement dégradées, ainsi que l’amélioration des conditions de vie des populations. Ce programme touche 2.500.000 ha couvrant 38 wilayas et 600 communes.
@@ -671,33 +730,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Plan_national_de_reboisement</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Plan_national_de_reboisement</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Barrage vert</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Barrage vert en Algérie fait partie du programme de la Grande muraille verte en Afrique[9].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Barrage vert en Algérie fait partie du programme de la Grande muraille verte en Afrique.
 </t>
         </is>
       </c>
